--- a/biology/Botanique/Square_Madeleine-Tribolati/Square_Madeleine-Tribolati.xlsx
+++ b/biology/Botanique/Square_Madeleine-Tribolati/Square_Madeleine-Tribolati.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le square Madeleine-Tribolati, anciennement square Robert-Blache[1], est un square du 10e arrondissement de Paris.
+Le square Madeleine-Tribolati, anciennement square Robert-Blache, est un square du 10e arrondissement de Paris.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par les rues Monseigneur-Rodhain et Robert-Blache, et situé en bout de la rue du Terrage.
 Il est desservi par la ligne 7 à la station Château-Landon.
@@ -544,10 +558,12 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parcelle de terrain sans historique, il prend le nom de la rue le jouxtant en 1946[2],[3], dédiée à Robert Blache (1898-1944)[4], un communiste français, secrétaire de rédaction au journal L'Humanité, fusillé par les Allemands le 5 août 1944, pour délit d'opinion[5]. En 1984 des travaux sont effectués, il est nommé « Jardin Valmy-Terrage »[6],[7].
-En 2013, le square est renommé en hommage à Madeleine Tribolati (1905-1995), syndicaliste de la confédération française des travailleurs chrétiens (CFTC)[8],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parcelle de terrain sans historique, il prend le nom de la rue le jouxtant en 1946 dédiée à Robert Blache (1898-1944), un communiste français, secrétaire de rédaction au journal L'Humanité, fusillé par les Allemands le 5 août 1944, pour délit d'opinion. En 1984 des travaux sont effectués, il est nommé « Jardin Valmy-Terrage »,.
+En 2013, le square est renommé en hommage à Madeleine Tribolati (1905-1995), syndicaliste de la confédération française des travailleurs chrétiens (CFTC),.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1984 correspond à l'année d'ouverture de l'espace sous le nom de « Jardin Valmy-Terrage »[6]. En 1992, le journaliste Jacques Barozzi le décrit comme un petit jardin offrant quelques distractions pour les enfants du quartier, en disposant d'un toboggan et quelques jeux[7].
-La mairie de Paris mentionne l'espace de jeux entouré par des massifs arbustifs de chèvrefeuille (Lonicera), d'aucubas et de lauriers-cerises (Prunus laurocerasus) du Caucase avec une voie plantée de prunus pissardii[10]. En 2022, le square est mentionné comme « élément relais » appartenant aux corridors urbains de biodiversités (CUB) du 10e arrondissement[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1984 correspond à l'année d'ouverture de l'espace sous le nom de « Jardin Valmy-Terrage ». En 1992, le journaliste Jacques Barozzi le décrit comme un petit jardin offrant quelques distractions pour les enfants du quartier, en disposant d'un toboggan et quelques jeux.
+La mairie de Paris mentionne l'espace de jeux entouré par des massifs arbustifs de chèvrefeuille (Lonicera), d'aucubas et de lauriers-cerises (Prunus laurocerasus) du Caucase avec une voie plantée de prunus pissardii. En 2022, le square est mentionné comme « élément relais » appartenant aux corridors urbains de biodiversités (CUB) du 10e arrondissement.
 			Panneau municipal retraçant la vie de la syndicaliste Madeleine Tribolati.
 			Vue du square depuis la rue Robert-Blache.
 </t>
